--- a/biology/Zoologie/Argyrogrammana_glaucopis/Argyrogrammana_glaucopis.xlsx
+++ b/biology/Zoologie/Argyrogrammana_glaucopis/Argyrogrammana_glaucopis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana glaucopis est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Argyrogrammana.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Argyrogrammana glaucopis a été nommée par Henry Walter Bates en 1868[1]
-Sous-espèces
-Argyrogrammana glaucopis glaucopis présent en Équateur, au Brésil et au Pérou.
-Argyrogrammana glaucopis virgata Brévignon &amp; Gallard, 19965; présent en Guyane et au Brésil[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana glaucopis a été nommée par Henry Walter Bates en 1868
+</t>
         </is>
       </c>
     </row>
@@ -541,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Argyrogrammana glaucopis présente un fort dimorphisme sexuel. Chez le mâle le dessus des ailes est noir profond discrètement ponctués de petits points orange dont les antérieures sont largement barrées de bleu métallique. Le revers est marron à damiers noirs et bleu gris métallique.
-Chez la femelle le dessus est rayé jaune pâle et ocre foncé avec une fine ligne submarginale gris bleu métallique. Le revers est identique[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Argyrogrammana glaucopis glaucopis présent en Équateur, au Brésil et au Pérou.
+Argyrogrammana glaucopis virgata Brévignon &amp; Gallard, 19965; présent en Guyane et au Brésil.</t>
         </is>
       </c>
     </row>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana glaucopis présente un fort dimorphisme sexuel. Chez le mâle le dessus des ailes est noir profond discrètement ponctués de petits points orange dont les antérieures sont largement barrées de bleu métallique. Le revers est marron à damiers noirs et bleu gris métallique.
+Chez la femelle le dessus est rayé jaune pâle et ocre foncé avec une fine ligne submarginale gris bleu métallique. Le revers est identique.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,15 +624,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_glaucopis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_glaucopis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Argyrogrammana glaucopis est présent en Guyane, en Équateur, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana glaucopis est présent en Guyane, en Équateur, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_glaucopis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_glaucopis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
